--- a/PythonDemo.xlsx
+++ b/PythonDemo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>TestCase1</t>
   </si>
@@ -47,65 +47,70 @@
     <t>gender</t>
   </si>
   <si>
-    <t>dwdw</t>
-  </si>
-  <si>
-    <t>ddw</t>
-  </si>
-  <si>
     <t>dwd</t>
   </si>
   <si>
-    <t>dw</t>
-  </si>
-  <si>
-    <t>wd</t>
-  </si>
-  <si>
     <t>fvg</t>
   </si>
   <si>
-    <t>fff</t>
-  </si>
-  <si>
     <t>TestCase3</t>
   </si>
   <si>
     <t>TestCase4</t>
   </si>
   <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>dad</t>
-  </si>
-  <si>
-    <t>zxczc</t>
-  </si>
-  <si>
-    <t>czczc</t>
-  </si>
-  <si>
     <t>qeqe</t>
   </si>
   <si>
-    <t>fhgf</t>
-  </si>
-  <si>
     <t>fdf</t>
   </si>
   <si>
-    <t>ffs</t>
+    <t>aditya</t>
+  </si>
+  <si>
+    <t>adi@gmail.com</t>
+  </si>
+  <si>
+    <t>kote</t>
+  </si>
+  <si>
+    <t>kote@gmail.com</t>
+  </si>
+  <si>
+    <t>geralt</t>
+  </si>
+  <si>
+    <t>wit@gmail.com</t>
+  </si>
+  <si>
+    <t>triss</t>
+  </si>
+  <si>
+    <t>triss@gmail.com</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,13 +133,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,13 +424,14 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -448,16 +457,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -465,30 +474,30 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
         <v>17</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -496,22 +505,28 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
         <v>19</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>